--- a/Excel/镇魂街/章节关卡/教学关卡.xlsx
+++ b/Excel/镇魂街/章节关卡/教学关卡.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\DataConfig\章节关卡\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E050EFE-432B-4F58-AB40-293674038EB9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="teach_level" sheetId="2" r:id="rId1"/>
@@ -12,12 +18,19 @@
     <sheet name="teach_monster_pos" sheetId="3" r:id="rId3"/>
     <sheet name="teach_monster" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="104">
   <si>
     <t>标识</t>
   </si>
@@ -288,6 +301,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -298,6 +312,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -349,27 +364,12 @@
   <si>
     <t>角色ID</t>
   </si>
-  <si>
-    <t>1301001#1302001</t>
-  </si>
-  <si>
-    <t>1301002#1302002</t>
-  </si>
-  <si>
-    <t>1301008#1302008</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,159 +381,32 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -552,194 +425,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -762,251 +449,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1058,61 +503,17 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1399,19 +800,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
     <col min="4" max="4" width="14.125" style="1" customWidth="1"/>
@@ -1426,7 +827,7 @@
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1470,7 +871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -1514,7 +915,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:14">
+    <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -1558,7 +959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" ht="81" spans="1:14">
+    <row r="4" spans="1:14" ht="81" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
@@ -1602,7 +1003,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:14">
+    <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>34</v>
       </c>
@@ -1622,7 +1023,7 @@
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
     </row>
-    <row r="6" ht="14.25" spans="1:14">
+    <row r="6" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
@@ -1666,7 +1067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="1:14">
+    <row r="7" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>37</v>
       </c>
@@ -1684,7 +1085,7 @@
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="16"/>
       <c r="B8" s="12">
         <v>1400001</v>
@@ -1726,7 +1127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="16"/>
       <c r="B9" s="12">
         <v>1400002</v>
@@ -1769,7 +1170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="16"/>
       <c r="B10" s="12">
         <v>1400003</v>
@@ -1813,28 +1214,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="7" max="7" width="23.375" customWidth="1"/>
     <col min="8" max="8" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1860,7 +1260,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -1886,7 +1286,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -1912,7 +1312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="27" spans="1:8">
+    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
@@ -1938,7 +1338,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>34</v>
       </c>
@@ -1962,7 +1362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
@@ -1976,7 +1376,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>37</v>
       </c>
@@ -1988,7 +1388,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="8">
         <v>1</v>
@@ -2010,7 +1410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="8">
         <v>2</v>
@@ -2032,7 +1432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="8">
         <v>3</v>
@@ -2054,7 +1454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="8">
         <v>4</v>
@@ -2076,7 +1476,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="8">
         <v>5</v>
@@ -2098,7 +1498,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="8">
         <v>6</v>
@@ -2120,28 +1520,27 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="34" spans="3:3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C34" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" style="2" customWidth="1"/>
     <col min="2" max="2" width="7.125" style="2" customWidth="1"/>
@@ -2152,7 +1551,7 @@
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2169,7 +1568,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:5">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -2186,7 +1585,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:5">
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -2203,7 +1602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="40.5" spans="1:5">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
@@ -2220,7 +1619,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:5">
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>34</v>
       </c>
@@ -2229,7 +1628,7 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:5">
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
@@ -2246,7 +1645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:5">
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>37</v>
       </c>
@@ -2255,7 +1654,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="8">
         <v>1</v>
@@ -2270,7 +1669,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="8">
         <v>2</v>
@@ -2285,7 +1684,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="8">
         <v>3</v>
@@ -2301,21 +1700,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16:P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" style="2" customWidth="1"/>
     <col min="2" max="2" width="8.75" style="2" customWidth="1"/>
@@ -2335,7 +1733,7 @@
     <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:17">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2388,7 +1786,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:17">
+    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -2441,7 +1839,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:17">
+    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -2494,7 +1892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="27" spans="1:17">
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
@@ -2547,7 +1945,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:17">
+    <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>34</v>
       </c>
@@ -2598,7 +1996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:17">
+    <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
@@ -2621,7 +2019,7 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="10"/>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:17">
+    <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>37</v>
       </c>
@@ -2642,7 +2040,7 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="10"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="8">
         <v>1</v>
@@ -2671,12 +2069,12 @@
       <c r="J8" s="8">
         <v>1</v>
       </c>
-      <c r="K8" s="9" t="s">
-        <v>104</v>
+      <c r="K8" s="9">
+        <v>1306001</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N8" s="8">
         <v>1</v>
@@ -2686,10 +2084,10 @@
         <v>1</v>
       </c>
       <c r="Q8" s="9">
-        <v>1101001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>1201001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="8">
         <v>2</v>
@@ -2718,12 +2116,12 @@
       <c r="J9" s="8">
         <v>1</v>
       </c>
-      <c r="K9" s="9" t="s">
-        <v>105</v>
+      <c r="K9" s="9">
+        <v>1306002</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N9" s="8">
         <v>1</v>
@@ -2733,10 +2131,10 @@
         <v>2</v>
       </c>
       <c r="Q9" s="9">
-        <v>1101002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1201002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="8">
         <v>3</v>
@@ -2765,12 +2163,12 @@
       <c r="J10" s="8">
         <v>1</v>
       </c>
-      <c r="K10" s="9" t="s">
-        <v>106</v>
+      <c r="K10" s="9">
+        <v>1306003</v>
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N10" s="8">
         <v>1</v>
@@ -2780,10 +2178,10 @@
         <v>3</v>
       </c>
       <c r="Q10" s="9">
-        <v>1101008</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1201003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="8">
         <v>4</v>
@@ -2816,7 +2214,9 @@
         <v>1303002</v>
       </c>
       <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
+      <c r="M11" s="8">
+        <v>0</v>
+      </c>
       <c r="N11" s="8"/>
       <c r="O11" s="8">
         <v>2</v>
@@ -2828,7 +2228,7 @@
         <v>1102002</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="8">
         <v>5</v>
@@ -2861,7 +2261,9 @@
         <v>1303004</v>
       </c>
       <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
+      <c r="M12" s="8">
+        <v>0</v>
+      </c>
       <c r="N12" s="8"/>
       <c r="O12" s="8">
         <v>3</v>
@@ -2873,7 +2275,7 @@
         <v>1102004</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="8">
         <v>6</v>
@@ -2906,7 +2308,9 @@
         <v>1303015</v>
       </c>
       <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
+      <c r="M13" s="8">
+        <v>0</v>
+      </c>
       <c r="N13" s="8"/>
       <c r="O13" s="8">
         <v>4</v>
@@ -2919,8 +2323,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>